--- a/docs/MM_field-activities.xlsx
+++ b/docs/MM_field-activities.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\ghproj_CENTS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C568B379-E7CD-4917-B3B5-E934ADDA324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA070A2F-1EAE-4ADA-BFA6-AE189D490738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{12D20B23-4266-411A-B6D5-0A20568D073A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mgmt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="48">
   <si>
     <t>NT</t>
   </si>
@@ -65,15 +66,6 @@
     <t>no cover control</t>
   </si>
   <si>
-    <t>seeding rate, spacing</t>
-  </si>
-  <si>
-    <t>field prep (tillage, herbicides)</t>
-  </si>
-  <si>
-    <t>broadcast onto soil at XX kg/ha (x kg grass, x kg clover)</t>
-  </si>
-  <si>
     <t>16 july 2018</t>
   </si>
   <si>
@@ -86,18 +78,12 @@
     <t>straw removed</t>
   </si>
   <si>
-    <t>straw retained</t>
-  </si>
-  <si>
     <t>field operations (tillage, herbicides)</t>
   </si>
   <si>
     <t>radish planted</t>
   </si>
   <si>
-    <t>mix same as early planted, radish broadcast onto soil at XX kg/ha</t>
-  </si>
-  <si>
     <t>pictures taken to determine % cover</t>
   </si>
   <si>
@@ -113,9 +99,6 @@
     <t>oats harvested</t>
   </si>
   <si>
-    <t>how much straw? i.e. how much was left?</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -128,10 +111,46 @@
     <t>Two 0,5 m2 samples taken per plot</t>
   </si>
   <si>
-    <t xml:space="preserve">how much straw? i.e. how much was left? I need help understanding what the ground looks like after straw removal. In Iowa you can only physically remove about half of the corn stover from a field. </t>
-  </si>
-  <si>
-    <t>Need a bit more information on this for M&amp;M</t>
+    <t>I want to calculate the PLI, so I need products applied and amounts</t>
+  </si>
+  <si>
+    <t>field prep (tillage, herbicide application)</t>
+  </si>
+  <si>
+    <t>(R3) straw re moved</t>
+  </si>
+  <si>
+    <t>straw retained (R4)</t>
+  </si>
+  <si>
+    <t>Glyphosate at a dose consistent within a year, but varied 720 g ai up to 500 or 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyphosate approximately a week, before sowing a full width cut at 8-10 cm depth (overlapping sweeps) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldboard plow in previous Nov/Dec at 24 cm depth (inversion), no glyphosate in the spring, harrow before sowing </t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>spring barley planted, 25 cm</t>
+  </si>
+  <si>
+    <t>spring barley planted, 25 cm bc it is a special sowing machine</t>
+  </si>
+  <si>
+    <t>spring barley planted, 12.5 cm</t>
+  </si>
+  <si>
+    <t>300 pl m-2 target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw is baled, small parts and stubble stays, they don't weigh the straw coming off. </t>
+  </si>
+  <si>
+    <t>Data on the harvested barley size? This would be great, 1000 kernal weight</t>
   </si>
   <si>
     <r>
@@ -141,7 +160,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Three pictures taken per plot. </t>
+      <t>Three pictures taken per plot. 70 cm wide by 70 cm long, (is</t>
     </r>
     <r>
       <rPr>
@@ -151,8 +170,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>How much 'area' was included in these pictures? Is there a citation for the methodology? I know there was a grid used, what size was the grid? Could I get an example picture and associated values as an example?</t>
+      <t xml:space="preserve"> there a citation for the methodology?) Could I get an example picture and associated values as an example?</t>
     </r>
+  </si>
+  <si>
+    <t>oats planted, 25 cm</t>
+  </si>
+  <si>
+    <t>oats planted, 12.5 cm</t>
+  </si>
+  <si>
+    <t>Ring of 0.25 m2, four per plot randomly placed, count and identify the species for everything appearing inside the ring, grasses are a nightmare (species m-2)</t>
+  </si>
+  <si>
+    <t>same as barley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 plants per m2, </t>
+  </si>
+  <si>
+    <t>faba beans planted, 25 cm rows</t>
+  </si>
+  <si>
+    <t>faba beans planted, 12.5 cm rows</t>
+  </si>
+  <si>
+    <t>sown at 12.5 cm rows at shallow depth 11 kg/ha (3 kg grass, 8 kg clover)</t>
+  </si>
+  <si>
+    <t>mix same as early planted, radish broadcast onto soil at 14 kg/ha, mix was planted at the same rate as in the early establishment treatment</t>
   </si>
 </sst>
 </file>
@@ -559,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8094B07-BF52-4219-AD74-BA183E27208A}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,47 +620,56 @@
     <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.77734375" style="1"/>
+    <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="4">
         <v>43209</v>
@@ -623,16 +678,13 @@
         <v>43213</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
         <v>43320</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>43322</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="4">
         <v>43332</v>
@@ -644,7 +696,7 @@
         <v>43419</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O3" s="4">
         <v>43559</v>
@@ -664,34 +716,31 @@
       <c r="T3" s="4">
         <v>43713</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>17</v>
+      <c r="U3" s="4">
+        <v>43717</v>
       </c>
       <c r="V3" s="4">
-        <v>43717</v>
+        <v>43778</v>
       </c>
       <c r="W3" s="4">
-        <v>43778</v>
-      </c>
-      <c r="X3" s="4">
         <v>43782</v>
       </c>
+      <c r="X3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="Y3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>43978</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>43978</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -699,221 +748,249 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Z5" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Z6" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z7" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -921,53 +998,53 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z8" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -975,53 +1052,53 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z9" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,53 +1109,53 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z10" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1086,53 +1163,53 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z11" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1140,53 +1217,53 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z12" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,162 +1273,162 @@
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z13" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z14" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z15" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,146 +1438,146 @@
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z16" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z17" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1512,45 +1589,45 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z19" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1558,45 +1635,45 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y20" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z20" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1604,45 +1681,45 @@
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y21" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z21" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,48 +1730,48 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z22" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1702,48 +1779,48 @@
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z23" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,48 +1828,48 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z24" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,48 +1880,48 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y25" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z25" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1852,48 +1929,48 @@
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y26" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z26" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1901,48 +1978,48 @@
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z27" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,147 +2029,147 @@
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z28" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z29" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z30" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,131 +2179,131 @@
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z31" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5"/>
       <c r="L32" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z32" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="5"/>
       <c r="L33" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Z33" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="H34" s="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/MM_field-activities.xlsx
+++ b/docs/MM_field-activities.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\ghproj_CENTS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gina\Documents\_git-it\ghproj_CENTS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA070A2F-1EAE-4ADA-BFA6-AE189D490738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8A7CA-E267-4FC6-8F84-C45925449923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{12D20B23-4266-411A-B6D5-0A20568D073A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12D20B23-4266-411A-B6D5-0A20568D073A}"/>
   </bookViews>
   <sheets>
     <sheet name="Mgmt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="51">
   <si>
     <t>NT</t>
   </si>
@@ -199,6 +198,15 @@
   </si>
   <si>
     <t>mix same as early planted, radish broadcast onto soil at 14 kg/ha, mix was planted at the same rate as in the early establishment treatment</t>
+  </si>
+  <si>
+    <t>I need to know what date the tillage happened in CT the previous fall</t>
+  </si>
+  <si>
+    <t>harrow before sowing, why no glyphosate in the spring?</t>
+  </si>
+  <si>
+    <t>I need to know the dates the field was prepared (it marks the end of the growing season for the cover crops that over wintered)</t>
   </si>
 </sst>
 </file>
@@ -605,28 +613,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8094B07-BF52-4219-AD74-BA183E27208A}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="N27" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.77734375" style="1"/>
+    <col min="1" max="1" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
@@ -653,21 +661,32 @@
       <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
@@ -695,50 +714,52 @@
       <c r="M3" s="4">
         <v>43419</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>43559</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>43563</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>43607</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>43677</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>43703</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>43713</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>43717</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>43778</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>43782</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>43978</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+      <c r="AB3" s="4">
+        <v>43978</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -769,44 +790,44 @@
       <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>19</v>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="AB4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="116" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -831,44 +852,46 @@
       <c r="M5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>19</v>
+      <c r="R5" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="AB5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="116" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -893,44 +916,50 @@
       <c r="M6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>19</v>
+      <c r="R6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Z6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AB6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,39 +987,41 @@
       <c r="M7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="N7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1012,39 +1043,41 @@
       <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="N8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,39 +1099,41 @@
       <c r="M9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="N9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,39 +1158,41 @@
       <c r="M10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="N10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1177,39 +1214,41 @@
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="N11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1231,39 +1270,41 @@
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="N12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="T12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,39 +1329,41 @@
       <c r="M13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>19</v>
+      <c r="N13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V13" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,39 +1385,41 @@
       <c r="M14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>19</v>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,39 +1441,41 @@
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>19</v>
+      <c r="N15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,36 +1497,38 @@
       <c r="M16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>19</v>
+      <c r="N16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1498,36 +1547,38 @@
       <c r="M17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>19</v>
+      <c r="N17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1546,36 +1597,38 @@
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>19</v>
+      <c r="N18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
       <c r="AA18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1601,33 +1654,35 @@
       <c r="M19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>15</v>
+      <c r="N19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1647,33 +1702,35 @@
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>15</v>
+      <c r="N20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1693,33 +1750,35 @@
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>15</v>
+      <c r="N21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,36 +1801,38 @@
       <c r="M22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="N22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>15</v>
+      <c r="T22" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1791,36 +1852,38 @@
       <c r="M23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R23" s="1" t="s">
+      <c r="N23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>15</v>
+      <c r="T23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1840,36 +1903,38 @@
       <c r="M24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" s="1" t="s">
+      <c r="N24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>15</v>
+      <c r="T24" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,36 +1957,38 @@
       <c r="M25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="1" t="s">
+      <c r="N25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>15</v>
+      <c r="T25" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1941,36 +2008,38 @@
       <c r="M26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R26" s="1" t="s">
+      <c r="N26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>15</v>
+      <c r="T26" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1990,36 +2059,38 @@
       <c r="M27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R27" s="1" t="s">
+      <c r="N27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>15</v>
+      <c r="T27" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,36 +2113,38 @@
       <c r="M28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U28" s="1" t="s">
+      <c r="N28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V28" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z28" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2091,36 +2164,38 @@
       <c r="M29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" s="1" t="s">
+      <c r="N29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V29" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2140,36 +2215,38 @@
       <c r="M30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="N30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V30" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="W30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,33 +2266,35 @@
       <c r="M31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>15</v>
+      <c r="N31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2232,33 +2311,35 @@
       <c r="M32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>15</v>
+      <c r="N32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2275,37 +2356,40 @@
       <c r="M33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>15</v>
+      <c r="N33" s="5"/>
+      <c r="P33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.35">
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>